--- a/data/trans_bre/P25_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>25,2%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,7%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>-9,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51,84%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,95</t>
+          <t>-1,51; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,95</t>
+          <t>-3,3; 1,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,79</t>
+          <t>-0,3; 4,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,15</t>
+          <t>0,6; 7,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 116,9</t>
+          <t>-1,78; 3,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 43,49</t>
+          <t>0,45; 6,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 153,07</t>
+          <t>-25,6; 103,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 78,46</t>
+          <t>-41,84; 43,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 137,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 155,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 68,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 114,73</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,32</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>37,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>65,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 4,22</t>
+          <t>-3,97; 3,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,79</t>
+          <t>-1,2; 3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,27</t>
+          <t>-3,78; 4,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 9,06</t>
+          <t>-0,32; 9,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 74,58</t>
+          <t>-0,29; 9,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 130,33</t>
+          <t>-1,43; 8,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 74,81</t>
+          <t>-40,74; 69,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 275,78</t>
+          <t>-22,63; 145,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,78; 115,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 208,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 264,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,04; 175,39</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>49,18%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 6,3</t>
+          <t>-7,71; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 7,08</t>
+          <t>-4,38; 7,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,08</t>
+          <t>-3,17; 10,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-4,08; 9,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-64,26; 146,65</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 176,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 265,25</t>
+          <t>-66,33; 136,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-47,27; 195,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-40,33; 230,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-48,91; 372,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,89</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51,92%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,71</t>
+          <t>-1,75; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,1</t>
+          <t>-1,45; 2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,46</t>
+          <t>-0,54; 3,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,59</t>
+          <t>1,48; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 53,19</t>
+          <t>-0,46; 4,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 47,1</t>
+          <t>0,9; 5,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 78,62</t>
+          <t>-23,04; 50,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 82,58</t>
+          <t>-22,29; 46,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 86,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,76; 129,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 82,37</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 114,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>51,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>60,83%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>51,84%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.316798066403842</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8539185343219458</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.196292432297566</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.715483478543537</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.179073801942358</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.263142647034317</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2935321283100149</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.131411277112266</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4723066413199279</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5909648389350615</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1690928390806853</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.50724260244264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 3,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 1,93</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 4,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 7,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 3,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 6,05</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-25,6; 103,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-41,84; 43,64</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 137,93</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 155,73</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-20,88; 68,53</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 114,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.133518583787819</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.81182861135713</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5820269611854276</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.5457540166538786</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.780881940278731</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4282267892719736</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.22075556733749</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4449642112403461</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.09168522679911711</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.06585460607682238</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2087772109121634</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.03695819342903538</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.917691627206139</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.831141205464345</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.496826001524844</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.33478750759707</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.860951357994128</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>5.986497491221125</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.159477840568946</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4180247425125393</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.34524521940633</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.5780605537256</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.6852659380832085</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.143331058851409</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>37,86%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>65,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>79,96%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>54,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 3,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 3,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 4,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 9,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 9,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 8,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-40,74; 69,24</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,63; 145,58</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-46,78; 115,9</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 208,89</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 264,13</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; 175,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3198963381791473</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.39711293490251</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.04551937033939746</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.361262584317669</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.322287144470945</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>4.05992708324421</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.04194883427709987</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3351131280264429</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.006972566038205259</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5533075315985073</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7995696604052078</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.5554332762141635</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,6%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>46,01%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>49,18%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.776922328309272</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.574307823250844</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.88851641280293</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.9297269284533153</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.287022930887013</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.380907949959379</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4006676337475952</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2840423024354861</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5274500616208558</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1578006556509713</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.08828394227149911</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1647985292336057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; 6,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 7,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 10,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 9,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-66,33; 136,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,27; 195,67</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-40,33; 230,21</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-48,91; 372,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.001085079157079</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.863409468934466</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.959395854727479</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.994588227607433</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.498357963714437</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>9.033787201396983</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7265298460846971</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.319949522972627</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9081619461175093</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.810294070019149</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.641340873342144</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.782143623480818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>32,26%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>61,65%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>28,7%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>51,92%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.6153757898801071</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.82362821763558</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.67979440381038</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.873575848145042</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.08800677914986808</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2739277522109735</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5176933658889945</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4946828555141553</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 2,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 2,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 3,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 6,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 4,35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 5,88</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,04; 50,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,29; 46,71</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-10,67; 86,65</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>19,76; 129,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 82,37</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>11,31; 114,16</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.16813168449293</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.193194151038146</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.857799755170755</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.196866492929629</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6283193619870162</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4524296407014208</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3901413920759433</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4923629069811531</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.648450043442482</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.532647931001085</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.52367744935859</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.509756727995114</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.648538986156636</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.092000658890514</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.462529196529886</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.68180534051303</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.7904590717719269</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3502849568068449</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.488095944684446</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.490342084910363</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.893340066828189</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>3.41980045294319</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1307723541778549</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06270519228240565</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2609061231847015</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5681730797917632</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2869784434174472</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.514566316543405</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.382461976407358</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.699864974278591</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8937242198158444</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.236411514075855</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4563170257385467</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.9215698288867931</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1886773538321648</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2409174925730386</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1516083096944349</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.1592287617621452</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.06356202433194769</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1085856080911319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.000238215511895</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.978345051794183</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.471943931823281</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.207713057839481</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.352209198516636</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>5.93938698038201</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6021325731678778</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4449196997872483</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7661740927012535</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.19805233692313</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8237048970333648</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.12937529153626</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
